--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CDF/10/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CDF/10/seed5/result_data_RandomForest.xlsx
@@ -542,7 +542,7 @@
         <v>-8.59</v>
       </c>
       <c r="E6" t="n">
-        <v>12.45890000000001</v>
+        <v>12.23590000000001</v>
       </c>
     </row>
     <row r="7">
@@ -559,7 +559,7 @@
         <v>-9.31</v>
       </c>
       <c r="E7" t="n">
-        <v>12.3474</v>
+        <v>11.8924</v>
       </c>
     </row>
     <row r="8">
@@ -573,7 +573,7 @@
         <v>-11.02</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.843299999999994</v>
+        <v>-8.733599999999992</v>
       </c>
       <c r="E8" t="n">
         <v>12.94</v>
@@ -638,10 +638,10 @@
         <v>5.38</v>
       </c>
       <c r="C12" t="n">
-        <v>-14.80440000000003</v>
+        <v>-14.58000000000002</v>
       </c>
       <c r="D12" t="n">
-        <v>-8.0509</v>
+        <v>-8.149900000000004</v>
       </c>
       <c r="E12" t="n">
         <v>13.01</v>
@@ -675,7 +675,7 @@
         <v>-11.89</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.666899999999998</v>
+        <v>-8.752599999999999</v>
       </c>
       <c r="E14" t="n">
         <v>12.97</v>
@@ -763,7 +763,7 @@
         <v>-8.470000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>12.841</v>
+        <v>12.8436</v>
       </c>
     </row>
     <row r="20">
@@ -797,7 +797,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>12.8723</v>
+        <v>12.8105</v>
       </c>
     </row>
     <row r="22">
@@ -811,7 +811,7 @@
         <v>-10.65</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.016699999999997</v>
+        <v>-8.001499999999997</v>
       </c>
       <c r="E22" t="n">
         <v>12.2</v>
@@ -848,7 +848,7 @@
         <v>-9.24</v>
       </c>
       <c r="E24" t="n">
-        <v>13.12579999999999</v>
+        <v>12.82459999999999</v>
       </c>
     </row>
     <row r="25">
